--- a/docs/testes.xlsx
+++ b/docs/testes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Área de Trabalho\INSPER\entidades\insper data\2025.1\aecom\processos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Área de Trabalho\INSPER\entidades\insper data\2025.1\aecom\repositorio\Projeto_InsperData_AECOM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A7054A-B0BC-40B7-87AE-0A05AEFD5C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD74A70-5BCE-4E04-BB69-47F866E6FA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FD272CD1-C90D-457F-BD98-7AF1CBAAF1D7}"/>
   </bookViews>
@@ -2099,11 +2099,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8416BD9D-E82D-456E-A125-B523A1AF31DB}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J104"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
